--- a/GTA_RACES_TABLE.xlsx
+++ b/GTA_RACES_TABLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Curtis\Desktop\GTA_Playlist_Builder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4199E366-1657-4A4B-83F8-640F26F3E4BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D034B33C-BB65-4949-AF3D-32300C431116}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0AA0829C-151B-49E6-8692-AFF504114DFA}"/>
+    <workbookView xWindow="1140" yWindow="1170" windowWidth="27660" windowHeight="13995" xr2:uid="{0AA0829C-151B-49E6-8692-AFF504114DFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="220">
   <si>
     <t>Across the Wilderness</t>
   </si>
@@ -693,6 +693,9 @@
   </si>
   <si>
     <t>Extreme Truck Track</t>
+  </si>
+  <si>
+    <t>Turn to Dust</t>
   </si>
 </sst>
 </file>
@@ -1047,10 +1050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00A02F50-6831-44C4-A0E6-F3F8C64CDBB4}">
-  <dimension ref="A1:G162"/>
+  <dimension ref="A1:G163"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="B153" sqref="B153"/>
+      <selection activeCell="B149" sqref="B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4349,6 +4352,26 @@
         <v>110</v>
       </c>
     </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>219</v>
+      </c>
+      <c r="B163" t="s">
+        <v>98</v>
+      </c>
+      <c r="D163">
+        <v>1</v>
+      </c>
+      <c r="E163">
+        <v>30</v>
+      </c>
+      <c r="F163">
+        <v>1.21</v>
+      </c>
+      <c r="G163" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G149" xr:uid="{D8B0EB9E-21C3-4330-86B9-F7126E11FA84}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G151">
